--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1895.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1895.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.139222906101516</v>
+        <v>1.240880489349365</v>
       </c>
       <c r="B1">
-        <v>2.919908150103648</v>
+        <v>1.893560886383057</v>
       </c>
       <c r="C1">
-        <v>3.685755867512603</v>
+        <v>2.521998882293701</v>
       </c>
       <c r="D1">
-        <v>2.660007411383126</v>
+        <v>3.8823561668396</v>
       </c>
       <c r="E1">
-        <v>1.124101344942388</v>
+        <v>1.148517608642578</v>
       </c>
     </row>
   </sheetData>
